--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H2">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I2">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J2">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2356578691205</v>
+        <v>70.2375145</v>
       </c>
       <c r="N2">
-        <v>70.2356578691205</v>
+        <v>140.475029</v>
       </c>
       <c r="O2">
-        <v>0.5972432053378556</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P2">
-        <v>0.5972432053378556</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q2">
-        <v>836.6547333637558</v>
+        <v>874.9771877323774</v>
       </c>
       <c r="R2">
-        <v>836.6547333637558</v>
+        <v>5249.863126394264</v>
       </c>
       <c r="S2">
-        <v>0.4723468879952931</v>
+        <v>0.4041995079265401</v>
       </c>
       <c r="T2">
-        <v>0.4723468879952931</v>
+        <v>0.3750344474150535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H3">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I3">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J3">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61267534780753</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N3">
-        <v>2.61267534780753</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.0222166723651891</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P3">
-        <v>0.0222166723651891</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q3">
-        <v>31.12247059120967</v>
+        <v>34.94053878387022</v>
       </c>
       <c r="R3">
-        <v>31.12247059120967</v>
+        <v>314.464849054832</v>
       </c>
       <c r="S3">
-        <v>0.01757069140262842</v>
+        <v>0.01614093347934028</v>
       </c>
       <c r="T3">
-        <v>0.01757069140262842</v>
+        <v>0.02246442393970334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H4">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I4">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J4">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>43.2917111739136</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>43.2917111739136</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.3681275456157778</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P4">
-        <v>0.3681275456157778</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q4">
-        <v>515.6955336926633</v>
+        <v>1.323902446863111</v>
       </c>
       <c r="R4">
-        <v>515.6955336926633</v>
+        <v>11.915122021768</v>
       </c>
       <c r="S4">
-        <v>0.2911442089300844</v>
+        <v>0.0006115824790262822</v>
       </c>
       <c r="T4">
-        <v>0.2911442089300844</v>
+        <v>0.0008511805157072409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H5">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I5">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J5">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45971604408666</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N5">
-        <v>1.45971604408666</v>
+        <v>132.89777</v>
       </c>
       <c r="O5">
-        <v>0.01241257668117757</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P5">
-        <v>0.01241257668117757</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q5">
-        <v>17.38829498725408</v>
+        <v>551.8537962620356</v>
       </c>
       <c r="R5">
-        <v>17.38829498725408</v>
+        <v>4966.684166358321</v>
       </c>
       <c r="S5">
-        <v>0.009816841639982317</v>
+        <v>0.2549312553788926</v>
       </c>
       <c r="T5">
-        <v>0.009816841639982317</v>
+        <v>0.3548049933817268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.1497580347468</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H6">
-        <v>3.1497580347468</v>
+        <v>37.372216</v>
       </c>
       <c r="I6">
-        <v>0.2091213700320118</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J6">
-        <v>0.2091213700320118</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.2356578691205</v>
+        <v>2.1006075</v>
       </c>
       <c r="N6">
-        <v>70.2356578691205</v>
+        <v>4.201215</v>
       </c>
       <c r="O6">
-        <v>0.5972432053378556</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P6">
-        <v>0.5972432053378556</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q6">
-        <v>221.2253276989896</v>
+        <v>26.16811907374001</v>
       </c>
       <c r="R6">
-        <v>221.2253276989896</v>
+        <v>157.00871444244</v>
       </c>
       <c r="S6">
-        <v>0.1248963173425625</v>
+        <v>0.01208847613545322</v>
       </c>
       <c r="T6">
-        <v>0.1248963173425625</v>
+        <v>0.0112162307935657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H7">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I7">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J7">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.61267534780753</v>
+        <v>70.2375145</v>
       </c>
       <c r="N7">
-        <v>2.61267534780753</v>
+        <v>140.475029</v>
       </c>
       <c r="O7">
-        <v>0.0222166723651891</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P7">
-        <v>0.0222166723651891</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q7">
-        <v>8.229295168941658</v>
+        <v>15.48549894686333</v>
       </c>
       <c r="R7">
-        <v>8.229295168941658</v>
+        <v>92.91299368118001</v>
       </c>
       <c r="S7">
-        <v>0.004645980962560681</v>
+        <v>0.007153593421721959</v>
       </c>
       <c r="T7">
-        <v>0.004645980962560681</v>
+        <v>0.006637425091658058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H8">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I8">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J8">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.2917111739136</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N8">
-        <v>43.2917111739136</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.3681275456157778</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P8">
-        <v>0.3681275456157778</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q8">
-        <v>136.3584151079722</v>
+        <v>0.6183837523155555</v>
       </c>
       <c r="R8">
-        <v>136.3584151079722</v>
+        <v>5.56545377084</v>
       </c>
       <c r="S8">
-        <v>0.07698333668569336</v>
+        <v>0.0002856650572153722</v>
       </c>
       <c r="T8">
-        <v>0.07698333668569336</v>
+        <v>0.0003975792947947904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.66142</v>
+      </c>
+      <c r="I9">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J9">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.318823</v>
+      </c>
+      <c r="O9">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P9">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q9">
+        <v>0.02343065651777778</v>
+      </c>
+      <c r="R9">
+        <v>0.21087590866</v>
+      </c>
+      <c r="S9">
+        <v>1.082389343135455E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.506434129298309E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.66142</v>
+      </c>
+      <c r="I10">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J10">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N10">
+        <v>132.89777</v>
+      </c>
+      <c r="O10">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P10">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q10">
+        <v>9.76680478148889</v>
+      </c>
+      <c r="R10">
+        <v>87.90124303340001</v>
+      </c>
+      <c r="S10">
+        <v>0.004511817841701096</v>
+      </c>
+      <c r="T10">
+        <v>0.006279400684255431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.66142</v>
+      </c>
+      <c r="I11">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J11">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.1006075</v>
+      </c>
+      <c r="N11">
+        <v>4.201215</v>
+      </c>
+      <c r="O11">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P11">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q11">
+        <v>0.46312793755</v>
+      </c>
+      <c r="R11">
+        <v>2.7787676253</v>
+      </c>
+      <c r="S11">
+        <v>0.0002139439600132749</v>
+      </c>
+      <c r="T11">
+        <v>0.0001985068097508648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.4295585</v>
+      </c>
+      <c r="H12">
+        <v>10.859117</v>
+      </c>
+      <c r="I12">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J12">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>70.2375145</v>
+      </c>
+      <c r="N12">
+        <v>140.475029</v>
+      </c>
+      <c r="O12">
+        <v>0.5875234044920492</v>
+      </c>
+      <c r="P12">
+        <v>0.4906443493732269</v>
+      </c>
+      <c r="Q12">
+        <v>381.3586938723482</v>
+      </c>
+      <c r="R12">
+        <v>1525.434775489393</v>
+      </c>
+      <c r="S12">
+        <v>0.1761703031437871</v>
+      </c>
+      <c r="T12">
+        <v>0.1089724768665153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.4295585</v>
+      </c>
+      <c r="H13">
+        <v>10.859117</v>
+      </c>
+      <c r="I13">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J13">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N13">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.02346162230159168</v>
+      </c>
+      <c r="P13">
+        <v>0.02938941407625393</v>
+      </c>
+      <c r="Q13">
+        <v>15.22882930050567</v>
+      </c>
+      <c r="R13">
+        <v>91.37297580303398</v>
+      </c>
+      <c r="S13">
+        <v>0.00703502376503603</v>
+      </c>
+      <c r="T13">
+        <v>0.006527410841755798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.4295585</v>
+      </c>
+      <c r="H14">
+        <v>10.859117</v>
+      </c>
+      <c r="I14">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J14">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.318823</v>
+      </c>
+      <c r="O14">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P14">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q14">
+        <v>0.5770227098818334</v>
+      </c>
+      <c r="R14">
+        <v>3.462136259291</v>
+      </c>
+      <c r="S14">
+        <v>0.0002665581442198843</v>
+      </c>
+      <c r="T14">
+        <v>0.0002473246116362291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="H9">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="I9">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="J9">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="N9">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="O9">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="P9">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="Q9">
-        <v>4.597752338310771</v>
-      </c>
-      <c r="R9">
-        <v>4.597752338310771</v>
-      </c>
-      <c r="S9">
-        <v>0.002595735041195256</v>
-      </c>
-      <c r="T9">
-        <v>0.002595735041195256</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.4295585</v>
+      </c>
+      <c r="H15">
+        <v>10.859117</v>
+      </c>
+      <c r="I15">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J15">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N15">
+        <v>132.89777</v>
+      </c>
+      <c r="O15">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P15">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q15">
+        <v>240.5254055781817</v>
+      </c>
+      <c r="R15">
+        <v>1443.15243346909</v>
+      </c>
+      <c r="S15">
+        <v>0.1111117546167027</v>
+      </c>
+      <c r="T15">
+        <v>0.1030944735874479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.4295585</v>
+      </c>
+      <c r="H16">
+        <v>10.859117</v>
+      </c>
+      <c r="I16">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J16">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.1006075</v>
+      </c>
+      <c r="N16">
+        <v>4.201215</v>
+      </c>
+      <c r="O16">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P16">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q16">
+        <v>11.40537130678875</v>
+      </c>
+      <c r="R16">
+        <v>45.621485227155</v>
+      </c>
+      <c r="S16">
+        <v>0.005268760756918765</v>
+      </c>
+      <c r="T16">
+        <v>0.003259061825135891</v>
       </c>
     </row>
   </sheetData>
